--- a/Défauts.xlsx
+++ b/Défauts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Hz</t>
   </si>
@@ -25,16 +25,7 @@
     <t>Défauts</t>
   </si>
   <si>
-    <t>Dimensions des billes ou des rouleaux _Intérieur</t>
-  </si>
-  <si>
     <t>Fréquence de rotation des billes ou es rouleaux</t>
-  </si>
-  <si>
-    <t>Irrégularité de la bille ou du rouleau</t>
-  </si>
-  <si>
-    <t>Irrégularité de la bague extérieure</t>
   </si>
 </sst>
 </file>
@@ -392,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,43 +405,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3.65</v>
+        <v>31.865</v>
       </c>
       <c r="C2">
-        <v>3.598157743235463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>31.865</v>
-      </c>
-      <c r="C3">
         <v>32.21649484536082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>63.731</v>
-      </c>
-      <c r="C4">
-        <v>63.77551020408162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>72.964</v>
-      </c>
-      <c r="C5">
-        <v>73.09941520467835</v>
       </c>
     </row>
   </sheetData>

--- a/Défauts.xlsx
+++ b/Défauts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,44 +449,42 @@
           <t>f0</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f_pic</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dimensions des billes ou des rouleaux _Intérieur</t>
+          <t>Fréquence de rotation des billes ou es rouleaux</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.65</v>
+        <v>31.865</v>
       </c>
       <c r="C2" t="n">
-        <v>3.825554705432287</v>
+        <v>32.21649484536082</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.32949766254871</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Dimensions des billes ou des rouleaux _Exterieur</t>
+          <t>Irrégularité de la bille ou du rouleau</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.683</v>
+        <v>63.731</v>
       </c>
       <c r="C3" t="n">
-        <v>4.057124310288867</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Irrégularité de la bague extérieure</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>72.964</v>
-      </c>
-      <c r="C4" t="n">
-        <v>72.46376811594202</v>
+        <v>63.77551020408162</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.46826082561336</v>
       </c>
     </row>
   </sheetData>
